--- a/feature_differences.xlsx
+++ b/feature_differences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctdin\OneDrive\Documents\Projects\metallica-blacklist-datavis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3282565A-4CC0-4F78-B51F-6E396F860926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3944FFE-1EE5-4A52-9807-1E4A6E2D0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{77341BFF-EBDB-441B-A97E-EBC674A4FDF6}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
     <sheet name="charts" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_data!$A$1:$Y$54</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -6052,8 +6055,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.1209507634184441"/>
           <c:y val="9.6711267865977738E-2"/>
-          <c:w val="0.86435176095918209"/>
-          <c:h val="0.39084006572587526"/>
+          <c:w val="0.7605333026028398"/>
+          <c:h val="0.34568266257693042"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6129,7 +6132,8163 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>...And</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Features For All</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>raw_data!$B$2:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>Alessia Cara, The Warning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mac DeMarco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ghost</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juanes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rina Sawayama</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weezer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sam Fender</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jason Isbell and the 400 Unit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mexican Institute Of Sound, La Perla, Gera MX, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Royal Blood</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>St. Vincent</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>White Reaper</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Biffy Clyro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Chats</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>OFF!</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PUP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Corey Taylor</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cage The Elephant</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vishal Dadlani, DIVINE, Shor Police, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Diet Cig</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Flatbush Zombies, DJ Scratch, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ha*Ash</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jos茅 Madero</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Moses Sumney</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>J Balvin, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Chase &amp; Status, BackRoad Gee, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>The Neptunes, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jon Pardi</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SebastiAn, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Portugal. The Man, Aaron Beam</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Volbeat</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>The HU</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Tomi Ow贸</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Phoebe Bridgers</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Miley Cyrus, WATT, Elton John, Yo-Yo Ma, Robert Trujillo, Chad Smith</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Dave Gahan</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Mickey Guyton</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Dermot Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Mon Laferte</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Igor Levit</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>My Morning Jacket</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>PG Roxette</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Darius Rucker</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chris Stapleton</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>TRESOR</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Goodnight, Texas</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>IDLES</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Imelda May</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Cherry Glazerr</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Iz茂a</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Kamasi Washington</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Rodrigo y Gabriela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$C$2:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-785B-4660-AAFF-6AB6D528ED98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>raw_data!$B$2:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>Alessia Cara, The Warning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mac DeMarco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ghost</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juanes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rina Sawayama</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weezer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sam Fender</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jason Isbell and the 400 Unit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mexican Institute Of Sound, La Perla, Gera MX, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Royal Blood</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>St. Vincent</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>White Reaper</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Biffy Clyro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Chats</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>OFF!</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PUP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Corey Taylor</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cage The Elephant</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vishal Dadlani, DIVINE, Shor Police, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Diet Cig</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Flatbush Zombies, DJ Scratch, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ha*Ash</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jos茅 Madero</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Moses Sumney</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>J Balvin, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Chase &amp; Status, BackRoad Gee, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>The Neptunes, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jon Pardi</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SebastiAn, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Portugal. The Man, Aaron Beam</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Volbeat</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>The HU</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Tomi Ow贸</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Phoebe Bridgers</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Miley Cyrus, WATT, Elton John, Yo-Yo Ma, Robert Trujillo, Chad Smith</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Dave Gahan</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Mickey Guyton</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Dermot Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Mon Laferte</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Igor Levit</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>My Morning Jacket</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>PG Roxette</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Darius Rucker</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chris Stapleton</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>TRESOR</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Goodnight, Texas</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>IDLES</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Imelda May</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Cherry Glazerr</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Iz茂a</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Kamasi Washington</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Rodrigo y Gabriela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$E$2:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-785B-4660-AAFF-6AB6D528ED98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>raw_data!$B$2:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>Alessia Cara, The Warning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mac DeMarco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ghost</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juanes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rina Sawayama</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weezer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sam Fender</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jason Isbell and the 400 Unit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mexican Institute Of Sound, La Perla, Gera MX, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Royal Blood</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>St. Vincent</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>White Reaper</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Biffy Clyro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Chats</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>OFF!</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PUP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Corey Taylor</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cage The Elephant</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vishal Dadlani, DIVINE, Shor Police, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Diet Cig</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Flatbush Zombies, DJ Scratch, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ha*Ash</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jos茅 Madero</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Moses Sumney</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>J Balvin, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Chase &amp; Status, BackRoad Gee, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>The Neptunes, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jon Pardi</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SebastiAn, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Portugal. The Man, Aaron Beam</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Volbeat</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>The HU</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Tomi Ow贸</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Phoebe Bridgers</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Miley Cyrus, WATT, Elton John, Yo-Yo Ma, Robert Trujillo, Chad Smith</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Dave Gahan</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Mickey Guyton</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Dermot Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Mon Laferte</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Igor Levit</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>My Morning Jacket</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>PG Roxette</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Darius Rucker</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chris Stapleton</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>TRESOR</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Goodnight, Texas</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>IDLES</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Imelda May</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Cherry Glazerr</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Iz茂a</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Kamasi Washington</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Rodrigo y Gabriela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$G$2:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>2.7900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.56E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.99E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.56E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.4100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.1800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.7900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.2799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.4200000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-785B-4660-AAFF-6AB6D528ED98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>raw_data!$B$2:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>Alessia Cara, The Warning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mac DeMarco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ghost</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juanes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rina Sawayama</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weezer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sam Fender</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jason Isbell and the 400 Unit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mexican Institute Of Sound, La Perla, Gera MX, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Royal Blood</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>St. Vincent</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>White Reaper</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Biffy Clyro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Chats</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>OFF!</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PUP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Corey Taylor</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cage The Elephant</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vishal Dadlani, DIVINE, Shor Police, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Diet Cig</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Flatbush Zombies, DJ Scratch, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ha*Ash</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jos茅 Madero</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Moses Sumney</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>J Balvin, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Chase &amp; Status, BackRoad Gee, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>The Neptunes, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jon Pardi</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SebastiAn, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Portugal. The Man, Aaron Beam</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Volbeat</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>The HU</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Tomi Ow贸</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Phoebe Bridgers</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Miley Cyrus, WATT, Elton John, Yo-Yo Ma, Robert Trujillo, Chad Smith</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Dave Gahan</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Mickey Guyton</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Dermot Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Mon Laferte</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Igor Levit</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>My Morning Jacket</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>PG Roxette</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Darius Rucker</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chris Stapleton</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>TRESOR</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Goodnight, Texas</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>IDLES</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Imelda May</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Cherry Glazerr</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Iz茂a</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Kamasi Washington</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Rodrigo y Gabriela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$2:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1.7200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4300000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7800000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.47E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3099999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.62E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.09E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5700000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.4200000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.5399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.1699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.3499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.42E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.4799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.16E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.3600000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-785B-4660-AAFF-6AB6D528ED98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>raw_data!$B$2:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>Alessia Cara, The Warning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mac DeMarco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ghost</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juanes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rina Sawayama</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weezer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sam Fender</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jason Isbell and the 400 Unit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mexican Institute Of Sound, La Perla, Gera MX, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Royal Blood</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>St. Vincent</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>White Reaper</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Biffy Clyro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Chats</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>OFF!</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PUP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Corey Taylor</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cage The Elephant</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vishal Dadlani, DIVINE, Shor Police, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Diet Cig</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Flatbush Zombies, DJ Scratch, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ha*Ash</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jos茅 Madero</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Moses Sumney</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>J Balvin, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Chase &amp; Status, BackRoad Gee, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>The Neptunes, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jon Pardi</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SebastiAn, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Portugal. The Man, Aaron Beam</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Volbeat</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>The HU</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Tomi Ow贸</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Phoebe Bridgers</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Miley Cyrus, WATT, Elton John, Yo-Yo Ma, Robert Trujillo, Chad Smith</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Dave Gahan</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Mickey Guyton</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Dermot Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Mon Laferte</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Igor Levit</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>My Morning Jacket</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>PG Roxette</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Darius Rucker</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chris Stapleton</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>TRESOR</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Goodnight, Texas</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>IDLES</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Imelda May</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Cherry Glazerr</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Iz茂a</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Kamasi Washington</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Rodrigo y Gabriela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$K$2:$K$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5.7600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.02E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>5.6900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>4.3199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>4.4200000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>5.2300000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>6.0699999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>1.8799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>5.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>2.62E-5</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>9.1800000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>1.01E-4</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>6.79E-3</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>1.9199999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>4.85E-5</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>1.5099999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>7.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>6.0800000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>1.8599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>8.1099999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>4.3899999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>4.5500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.8499999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>1.9300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>9.1000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>4.3400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-785B-4660-AAFF-6AB6D528ED98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>raw_data!$B$2:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>Alessia Cara, The Warning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mac DeMarco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ghost</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juanes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rina Sawayama</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weezer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sam Fender</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jason Isbell and the 400 Unit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mexican Institute Of Sound, La Perla, Gera MX, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Royal Blood</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>St. Vincent</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>White Reaper</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Biffy Clyro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Chats</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>OFF!</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PUP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Corey Taylor</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cage The Elephant</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vishal Dadlani, DIVINE, Shor Police, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Diet Cig</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Flatbush Zombies, DJ Scratch, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ha*Ash</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jos茅 Madero</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Moses Sumney</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>J Balvin, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Chase &amp; Status, BackRoad Gee, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>The Neptunes, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jon Pardi</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SebastiAn, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Portugal. The Man, Aaron Beam</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Volbeat</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>The HU</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Tomi Ow贸</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Phoebe Bridgers</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Miley Cyrus, WATT, Elton John, Yo-Yo Ma, Robert Trujillo, Chad Smith</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Dave Gahan</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Mickey Guyton</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Dermot Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Mon Laferte</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Igor Levit</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>My Morning Jacket</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>PG Roxette</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Darius Rucker</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chris Stapleton</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>TRESOR</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Goodnight, Texas</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>IDLES</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Imelda May</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Cherry Glazerr</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Iz茂a</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Kamasi Washington</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Rodrigo y Gabriela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$M$2:$M$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>7.3899999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>8.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>6.4500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.5500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.4599999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>8.1100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>8.9499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.2600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.5500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00E+00">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00E+00">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00E+00">
+                  <c:v>8.2500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.6399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.7200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-785B-4660-AAFF-6AB6D528ED98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>raw_data!$B$2:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>Alessia Cara, The Warning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mac DeMarco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ghost</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Juanes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rina Sawayama</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weezer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sam Fender</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jason Isbell and the 400 Unit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mexican Institute Of Sound, La Perla, Gera MX, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Royal Blood</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>St. Vincent</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>White Reaper</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Biffy Clyro</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Chats</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>OFF!</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PUP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Corey Taylor</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cage The Elephant</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vishal Dadlani, DIVINE, Shor Police, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Diet Cig</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Flatbush Zombies, DJ Scratch, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ha*Ash</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jos茅 Madero</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Moses Sumney</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>J Balvin, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Chase &amp; Status, BackRoad Gee, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>The Neptunes, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jon Pardi</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SebastiAn, Metallica</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Portugal. The Man, Aaron Beam</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Volbeat</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>The HU</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Tomi Ow贸</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Phoebe Bridgers</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Miley Cyrus, WATT, Elton John, Yo-Yo Ma, Robert Trujillo, Chad Smith</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Dave Gahan</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Mickey Guyton</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Dermot Kennedy</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Mon Laferte</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Igor Levit</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>My Morning Jacket</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>PG Roxette</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Darius Rucker</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chris Stapleton</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>TRESOR</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Goodnight, Texas</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>IDLES</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Imelda May</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Cherry Glazerr</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Iz茂a</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Kamasi Washington</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Rodrigo y Gabriela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$O$2:$O$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-785B-4660-AAFF-6AB6D528ED98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="577572687"/>
+        <c:axId val="577574127"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="577572687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577574127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="577574127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577572687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Song Features -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> The Struggle Within </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Covers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alessia Cara, The Warning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$2,raw_data!$E$2,raw_data!$G$2,raw_data!$I$2,raw_data!$K$2,raw_data!$M$2,raw_data!$O$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mac DeMarco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$3,raw_data!$E$3,raw_data!$G$3,raw_data!$I$3,raw_data!$K$3,raw_data!$M$3,raw_data!$O$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.56E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4300000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ghost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$4,raw_data!$E$4,raw_data!$G$4,raw_data!$I$4,raw_data!$K$4,raw_data!$M$4,raw_data!$O$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.02E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Juanes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$5,raw_data!$E$5,raw_data!$G$5,raw_data!$I$5,raw_data!$K$5,raw_data!$M$5,raw_data!$O$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>7.3899999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rina Sawayama</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$6,raw_data!$E$6,raw_data!$G$6,raw_data!$I$6,raw_data!$K$6,raw_data!$M$6,raw_data!$O$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weezer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$7,raw_data!$E$7,raw_data!$G$7,raw_data!$I$7,raw_data!$K$7,raw_data!$M$7,raw_data!$O$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.99E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sam Fender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$8,raw_data!$E$8,raw_data!$G$8,raw_data!$I$8,raw_data!$K$8,raw_data!$M$8,raw_data!$O$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jason Isbell and the 400 Unit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$9,raw_data!$E$9,raw_data!$G$9,raw_data!$I$9,raw_data!$K$9,raw_data!$M$9,raw_data!$O$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mexican Institute Of Sound, La Perla, Gera MX, Metallica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$10,raw_data!$E$10,raw_data!$G$10,raw_data!$I$10,raw_data!$K$10,raw_data!$M$10,raw_data!$O$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Royal Blood</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$11,raw_data!$E$11,raw_data!$G$11,raw_data!$I$11,raw_data!$K$11,raw_data!$M$11,raw_data!$O$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>3.2299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>St. Vincent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$12,raw_data!$E$12,raw_data!$G$12,raw_data!$I$12,raw_data!$K$12,raw_data!$M$12,raw_data!$O$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White Reaper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$13,raw_data!$E$13,raw_data!$G$13,raw_data!$I$13,raw_data!$K$13,raw_data!$M$13,raw_data!$O$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.56E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4200000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>YB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$14,raw_data!$E$14,raw_data!$G$14,raw_data!$I$14,raw_data!$K$14,raw_data!$M$14,raw_data!$O$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7800000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Biffy Clyro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$15,raw_data!$E$15,raw_data!$G$15,raw_data!$I$15,raw_data!$K$15,raw_data!$M$15,raw_data!$O$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2300000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9799999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>The Chats</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$16,raw_data!$E$16,raw_data!$G$16,raw_data!$I$16,raw_data!$K$16,raw_data!$M$16,raw_data!$O$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.47E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.95E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OFF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$17,raw_data!$E$17,raw_data!$G$17,raw_data!$I$17,raw_data!$K$17,raw_data!$M$17,raw_data!$O$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3099999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PUP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$18,raw_data!$E$18,raw_data!$G$18,raw_data!$I$18,raw_data!$K$18,raw_data!$M$18,raw_data!$O$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>2.0400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corey Taylor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$19,raw_data!$E$19,raw_data!$G$19,raw_data!$I$19,raw_data!$K$19,raw_data!$M$19,raw_data!$O$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0699999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cage The Elephant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$20,raw_data!$E$20,raw_data!$G$20,raw_data!$I$20,raw_data!$K$20,raw_data!$M$20,raw_data!$O$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vishal Dadlani, DIVINE, Shor Police, Metallica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$21,raw_data!$E$21,raw_data!$G$21,raw_data!$I$21,raw_data!$K$21,raw_data!$M$21,raw_data!$O$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diet Cig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$22,raw_data!$E$22,raw_data!$G$22,raw_data!$I$22,raw_data!$K$22,raw_data!$M$22,raw_data!$O$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.62E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flatbush Zombies, DJ Scratch, Metallica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$23,raw_data!$E$23,raw_data!$G$23,raw_data!$I$23,raw_data!$K$23,raw_data!$M$23,raw_data!$O$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.09E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ha*Ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$24,raw_data!$E$24,raw_data!$G$24,raw_data!$I$24,raw_data!$K$24,raw_data!$M$24,raw_data!$O$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jos茅 Madero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$25,raw_data!$E$25,raw_data!$G$25,raw_data!$I$25,raw_data!$K$25,raw_data!$M$25,raw_data!$O$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>8.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moses Sumney</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$26,raw_data!$E$26,raw_data!$G$26,raw_data!$I$26,raw_data!$K$26,raw_data!$M$26,raw_data!$O$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>J Balvin, Metallica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$27,raw_data!$E$27,raw_data!$G$27,raw_data!$I$27,raw_data!$K$27,raw_data!$M$27,raw_data!$O$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chase &amp; Status, BackRoad Gee, Metallica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$28,raw_data!$E$28,raw_data!$G$28,raw_data!$I$28,raw_data!$K$28,raw_data!$M$28,raw_data!$O$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.62E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>6.4500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>The Neptunes, Metallica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$29,raw_data!$E$29,raw_data!$G$29,raw_data!$I$29,raw_data!$K$29,raw_data!$M$29,raw_data!$O$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jon Pardi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$30,raw_data!$E$30,raw_data!$G$30,raw_data!$I$30,raw_data!$K$30,raw_data!$M$30,raw_data!$O$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1800000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SebastiAn, Metallica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$31,raw_data!$E$31,raw_data!$G$31,raw_data!$I$31,raw_data!$K$31,raw_data!$M$31,raw_data!$O$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Portugal. The Man, Aaron Beam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$32,raw_data!$E$32,raw_data!$G$32,raw_data!$I$32,raw_data!$K$32,raw_data!$M$32,raw_data!$O$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volbeat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$33,raw_data!$E$33,raw_data!$G$33,raw_data!$I$33,raw_data!$K$33,raw_data!$M$33,raw_data!$O$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5700000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>The HU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$34,raw_data!$E$34,raw_data!$G$34,raw_data!$I$34,raw_data!$K$34,raw_data!$M$34,raw_data!$O$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4200000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tomi Ow贸</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$35,raw_data!$E$35,raw_data!$G$35,raw_data!$I$35,raw_data!$K$35,raw_data!$M$35,raw_data!$O$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.01E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phoebe Bridgers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$36,raw_data!$E$36,raw_data!$G$36,raw_data!$I$36,raw_data!$K$36,raw_data!$M$36,raw_data!$O$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.79E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52900000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Miley Cyrus, WATT, Elton John, Yo-Yo Ma, Robert Trujillo, Chad Smith</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$37,raw_data!$E$37,raw_data!$G$37,raw_data!$I$37,raw_data!$K$37,raw_data!$M$37,raw_data!$O$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9199999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dave Gahan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$38,raw_data!$E$38,raw_data!$G$38,raw_data!$I$38,raw_data!$K$38,raw_data!$M$38,raw_data!$O$38)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4599999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mickey Guyton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$39,raw_data!$E$39,raw_data!$G$39,raw_data!$I$39,raw_data!$K$39,raw_data!$M$39,raw_data!$O$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.85E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>8.1100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dermot Kennedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$40,raw_data!$E$40,raw_data!$G$40,raw_data!$I$40,raw_data!$K$40,raw_data!$M$40,raw_data!$O$40)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5099999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>8.9499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="39"/>
+          <c:order val="39"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mon Laferte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$41,raw_data!$E$41,raw_data!$G$41,raw_data!$I$41,raw_data!$K$41,raw_data!$M$41,raw_data!$O$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="40"/>
+          <c:order val="40"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Igor Levit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$42,raw_data!$E$42,raw_data!$G$42,raw_data!$I$42,raw_data!$K$42,raw_data!$M$42,raw_data!$O$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="41"/>
+          <c:order val="41"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>My Morning Jacket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$43,raw_data!$E$43,raw_data!$G$43,raw_data!$I$43,raw_data!$K$43,raw_data!$M$43,raw_data!$O$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0800000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="42"/>
+          <c:order val="42"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PG Roxette</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$44,raw_data!$E$44,raw_data!$G$44,raw_data!$I$44,raw_data!$K$44,raw_data!$M$44,raw_data!$O$44)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="43"/>
+          <c:order val="43"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Darius Rucker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$45,raw_data!$E$45,raw_data!$G$45,raw_data!$I$45,raw_data!$K$45,raw_data!$M$45,raw_data!$O$45)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1099999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="44"/>
+          <c:order val="44"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chris Stapleton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$46,raw_data!$E$46,raw_data!$G$46,raw_data!$I$46,raw_data!$K$46,raw_data!$M$46,raw_data!$O$46)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="45"/>
+          <c:order val="45"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TRESOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$47,raw_data!$E$47,raw_data!$G$47,raw_data!$I$47,raw_data!$K$47,raw_data!$M$47,raw_data!$O$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3899999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="46"/>
+          <c:order val="46"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Goodnight, Texas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$48,raw_data!$E$48,raw_data!$G$48,raw_data!$I$48,raw_data!$K$48,raw_data!$M$48,raw_data!$O$48)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002E-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="47"/>
+          <c:order val="47"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDLES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$49,raw_data!$E$49,raw_data!$G$49,raw_data!$I$49,raw_data!$K$49,raw_data!$M$49,raw_data!$O$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.42E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>6.8499999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002F-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="48"/>
+          <c:order val="48"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Imelda May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$50,raw_data!$E$50,raw_data!$G$50,raw_data!$I$50,raw_data!$K$50,raw_data!$M$50,raw_data!$O$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="49"/>
+          <c:order val="49"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cherry Glazerr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$51,raw_data!$E$51,raw_data!$G$51,raw_data!$I$51,raw_data!$K$51,raw_data!$M$51,raw_data!$O$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>8.2500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="50"/>
+          <c:order val="50"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iz茂a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$52,raw_data!$E$52,raw_data!$G$52,raw_data!$I$52,raw_data!$K$52,raw_data!$M$52,raw_data!$O$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.16E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000032-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="51"/>
+          <c:order val="51"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kamasi Washington</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$53,raw_data!$E$53,raw_data!$G$53,raw_data!$I$53,raw_data!$K$53,raw_data!$M$53,raw_data!$O$53)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="52"/>
+          <c:order val="52"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rodrigo y Gabriela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(raw_data!$C$1,raw_data!$E$1,raw_data!$G$1,raw_data!$I$1,raw_data!$K$1,raw_data!$M$1,raw_data!$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Danceability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Speechiness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Acousticness</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instrumentalness</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Liveness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Valence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(raw_data!$C$54,raw_data!$E$54,raw_data!$G$54,raw_data!$I$54,raw_data!$K$54,raw_data!$M$54,raw_data!$O$54)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000034-8AD1-4EF4-A6B8-601480DAA588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="577572687"/>
+        <c:axId val="577574127"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="577572687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577574127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="577574127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577572687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6674,20 +14833,1030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>245165</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>113590</xdr:rowOff>
+      <xdr:colOff>492815</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>487017</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6709,6 +15878,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>597972</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>620856</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>39207</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3E97EA-344E-4E50-98D1-202086E33AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>125985</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>75720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC5CA36-42EE-409B-8A5D-F3B0831A2109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7036,9 +16281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E5995B-0DA3-432B-874D-22CB49ACC1B7}">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -11205,6 +20448,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y54" xr:uid="{E6E5995B-0DA3-432B-874D-22CB49ACC1B7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11214,8 +20458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97CB77C-7002-4364-A414-23FF37036891}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI62" sqref="AI62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/feature_differences.xlsx
+++ b/feature_differences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctdin\OneDrive\Documents\Projects\metallica-blacklist-datavis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3944FFE-1EE5-4A52-9807-1E4A6E2D0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D708404E-7CB8-4899-932A-F0204A85DC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{77341BFF-EBDB-441B-A97E-EBC674A4FDF6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{77341BFF-EBDB-441B-A97E-EBC674A4FDF6}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_data!$A$1:$Y$54</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -829,17 +842,17 @@
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="16" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -16281,7 +16294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E5995B-0DA3-432B-874D-22CB49ACC1B7}">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -20458,7 +20473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97CB77C-7002-4364-A414-23FF37036891}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AI62" sqref="AI62"/>
     </sheetView>
   </sheetViews>
